--- a/Code/Results/Cases/Case_3_178/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_178/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.20467536966416</v>
+        <v>14.34740256217261</v>
       </c>
       <c r="C2">
-        <v>11.19822312665614</v>
+        <v>10.34926009556185</v>
       </c>
       <c r="D2">
-        <v>6.048479745368319</v>
+        <v>9.964170495555722</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.79510680584959</v>
+        <v>30.15515580384336</v>
       </c>
       <c r="G2">
-        <v>21.92883106023119</v>
+        <v>29.67589848840167</v>
       </c>
       <c r="H2">
-        <v>8.624856289557441</v>
+        <v>14.55382193461381</v>
       </c>
       <c r="I2">
-        <v>13.45544838694631</v>
+        <v>22.77292271472182</v>
       </c>
       <c r="J2">
-        <v>6.214408766066938</v>
+        <v>10.53619613863462</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.177271924331219</v>
+        <v>11.73649658738849</v>
       </c>
       <c r="M2">
-        <v>11.802743331396</v>
+        <v>15.61546650883949</v>
       </c>
       <c r="N2">
-        <v>12.47523486550035</v>
+        <v>18.16391667204133</v>
       </c>
       <c r="O2">
-        <v>14.0918695280727</v>
+        <v>22.27034709768229</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.99500047108644</v>
+        <v>13.92697751076037</v>
       </c>
       <c r="C3">
-        <v>10.79784451898864</v>
+        <v>10.20472931831081</v>
       </c>
       <c r="D3">
-        <v>5.993381242458795</v>
+        <v>9.974302547796395</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.57088545423744</v>
+        <v>30.21936931795404</v>
       </c>
       <c r="G3">
-        <v>21.42749723799793</v>
+        <v>29.70917269403619</v>
       </c>
       <c r="H3">
-        <v>8.64745434734432</v>
+        <v>14.594851974642</v>
       </c>
       <c r="I3">
-        <v>13.61327799509141</v>
+        <v>22.86734269547867</v>
       </c>
       <c r="J3">
-        <v>6.266964591833219</v>
+        <v>10.55588438663188</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.077667363517487</v>
+        <v>11.74004598782049</v>
       </c>
       <c r="M3">
-        <v>11.29281980337818</v>
+        <v>15.52957484803906</v>
       </c>
       <c r="N3">
-        <v>12.5730987365385</v>
+        <v>18.20351729125601</v>
       </c>
       <c r="O3">
-        <v>14.01458643213573</v>
+        <v>22.33051725549161</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.20684833676441</v>
+        <v>13.66353389365985</v>
       </c>
       <c r="C4">
-        <v>10.54378952214134</v>
+        <v>10.11432434482128</v>
       </c>
       <c r="D4">
-        <v>5.961563136177501</v>
+        <v>9.981694766624308</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.44797738365198</v>
+        <v>30.26537507066767</v>
       </c>
       <c r="G4">
-        <v>21.1369459790845</v>
+        <v>29.73852719587957</v>
       </c>
       <c r="H4">
-        <v>8.666568536259987</v>
+        <v>14.62225852458104</v>
       </c>
       <c r="I4">
-        <v>13.71980319639142</v>
+        <v>22.92932741198176</v>
       </c>
       <c r="J4">
-        <v>6.300275223777542</v>
+        <v>10.56860333210849</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.01818270342299</v>
+        <v>11.74350065000834</v>
       </c>
       <c r="M4">
-        <v>10.97024290456772</v>
+        <v>15.47829641035831</v>
       </c>
       <c r="N4">
-        <v>12.6365218090513</v>
+        <v>18.22948961852674</v>
       </c>
       <c r="O4">
-        <v>13.97829912301998</v>
+        <v>22.3719993008228</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.87420190426514</v>
+        <v>13.55500132588529</v>
       </c>
       <c r="C5">
-        <v>10.43829758537688</v>
+        <v>10.0770923071551</v>
       </c>
       <c r="D5">
-        <v>5.949108741109237</v>
+        <v>9.985002198086482</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.40156568549095</v>
+        <v>30.28577473776429</v>
       </c>
       <c r="G5">
-        <v>21.02296949953946</v>
+        <v>29.75272901947364</v>
       </c>
       <c r="H5">
-        <v>8.675635706851331</v>
+        <v>14.63398367033845</v>
       </c>
       <c r="I5">
-        <v>13.76554326711445</v>
+        <v>22.95559520973011</v>
       </c>
       <c r="J5">
-        <v>6.314114817575553</v>
+        <v>10.57394533808145</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.994383239334005</v>
+        <v>11.74523013571867</v>
       </c>
       <c r="M5">
-        <v>10.8365833116538</v>
+        <v>15.45778182351755</v>
       </c>
       <c r="N5">
-        <v>12.66319453599147</v>
+        <v>18.24049107711344</v>
       </c>
       <c r="O5">
-        <v>13.96624869417393</v>
+        <v>22.39004291853018</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.81827212733486</v>
+        <v>13.53691324663057</v>
       </c>
       <c r="C6">
-        <v>10.42066550201938</v>
+        <v>10.07088711809225</v>
       </c>
       <c r="D6">
-        <v>5.947071751809929</v>
+        <v>9.985569230069375</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.39407963305644</v>
+        <v>30.28926178812104</v>
       </c>
       <c r="G6">
-        <v>21.00431313540483</v>
+        <v>29.7552223363382</v>
       </c>
       <c r="H6">
-        <v>8.677217346286234</v>
+        <v>14.63596424946561</v>
       </c>
       <c r="I6">
-        <v>13.7732766312425</v>
+        <v>22.96001787208674</v>
       </c>
       <c r="J6">
-        <v>6.316428990137579</v>
+        <v>10.57484198627164</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.990458571264992</v>
+        <v>11.74553677220793</v>
       </c>
       <c r="M6">
-        <v>10.81426160116159</v>
+        <v>15.45439887469393</v>
       </c>
       <c r="N6">
-        <v>12.66767318243949</v>
+        <v>18.24234310092644</v>
       </c>
       <c r="O6">
-        <v>13.96441086865349</v>
+        <v>22.39310781192266</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.20240865034801</v>
+        <v>13.66207473781606</v>
       </c>
       <c r="C7">
-        <v>10.54237461960199</v>
+        <v>10.11382376897953</v>
       </c>
       <c r="D7">
-        <v>5.961393093083446</v>
+        <v>9.981738176464791</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.44733664109957</v>
+        <v>30.26564350225697</v>
       </c>
       <c r="G7">
-        <v>21.1353908377926</v>
+        <v>29.73870966521938</v>
       </c>
       <c r="H7">
-        <v>8.666685696534879</v>
+        <v>14.62241439967475</v>
       </c>
       <c r="I7">
-        <v>13.72041074076266</v>
+        <v>22.92967758511989</v>
       </c>
       <c r="J7">
-        <v>6.300460790944881</v>
+        <v>10.56867473216725</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.017859923571825</v>
+        <v>11.74352267070457</v>
       </c>
       <c r="M7">
-        <v>10.96844900821482</v>
+        <v>15.47801817839507</v>
       </c>
       <c r="N7">
-        <v>12.6368781910037</v>
+        <v>18.22963629648703</v>
       </c>
       <c r="O7">
-        <v>13.9781256220263</v>
+        <v>22.37223803240162</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.79697315291887</v>
+        <v>14.20363026225602</v>
       </c>
       <c r="C8">
-        <v>11.06193793485397</v>
+        <v>10.29978678604099</v>
       </c>
       <c r="D8">
-        <v>6.029067752829808</v>
+        <v>9.967421311566735</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>19.71471126458452</v>
+        <v>30.17593003268381</v>
       </c>
       <c r="G8">
-        <v>21.75244193906211</v>
+        <v>29.68551699536378</v>
       </c>
       <c r="H8">
-        <v>8.631536976737648</v>
+        <v>14.56750961803391</v>
       </c>
       <c r="I8">
-        <v>13.50781734598263</v>
+        <v>22.80464638487969</v>
       </c>
       <c r="J8">
-        <v>6.232316032549677</v>
+        <v>10.542854098994</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.142593475845779</v>
+        <v>11.73745634153055</v>
       </c>
       <c r="M8">
-        <v>11.628988779272</v>
+        <v>15.58555719796905</v>
       </c>
       <c r="N8">
-        <v>12.50827932802678</v>
+        <v>18.17722743064953</v>
       </c>
       <c r="O8">
-        <v>14.06286431024465</v>
+        <v>22.290151123287</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.56593644275647</v>
+        <v>15.21728208675408</v>
       </c>
       <c r="C9">
-        <v>12.01157883075963</v>
+        <v>10.65012994927535</v>
       </c>
       <c r="D9">
-        <v>6.177456087871515</v>
+        <v>9.948612711769995</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.35734561553157</v>
+        <v>30.05228596706955</v>
       </c>
       <c r="G9">
-        <v>23.09509467883459</v>
+        <v>29.65215479256328</v>
       </c>
       <c r="H9">
-        <v>8.605955974739965</v>
+        <v>14.47740605472432</v>
       </c>
       <c r="I9">
-        <v>13.17145518184019</v>
+        <v>22.59127899534925</v>
       </c>
       <c r="J9">
-        <v>6.106782849566709</v>
+        <v>10.49720056964476</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.399549052501269</v>
+        <v>11.73563422938749</v>
       </c>
       <c r="M9">
-        <v>12.84245092748515</v>
+        <v>15.80735020876</v>
       </c>
       <c r="N9">
-        <v>12.28309951339256</v>
+        <v>18.08757056908049</v>
       </c>
       <c r="O9">
-        <v>14.32048988730753</v>
+        <v>22.16524758941806</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.3853249498481</v>
+        <v>15.92494749216199</v>
       </c>
       <c r="C10">
-        <v>12.66254098205094</v>
+        <v>10.89732488299516</v>
       </c>
       <c r="D10">
-        <v>6.295596196802024</v>
+        <v>9.940407927829662</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.90249292649432</v>
+        <v>29.99341765675967</v>
       </c>
       <c r="G10">
-        <v>24.15579417960227</v>
+        <v>29.67100493935721</v>
       </c>
       <c r="H10">
-        <v>8.616036523098034</v>
+        <v>14.42191154570722</v>
       </c>
       <c r="I10">
-        <v>12.979655493419</v>
+        <v>22.45391112546772</v>
       </c>
       <c r="J10">
-        <v>6.019254084841538</v>
+        <v>10.46666659005507</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.594617721750494</v>
+        <v>11.74037412479661</v>
       </c>
       <c r="M10">
-        <v>13.67671859704264</v>
+        <v>15.97602941834582</v>
       </c>
       <c r="N10">
-        <v>12.13495099973225</v>
+        <v>18.02964984191868</v>
       </c>
       <c r="O10">
-        <v>14.5690098045729</v>
+        <v>22.09555406756461</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.16705053974689</v>
+        <v>16.23745627098432</v>
       </c>
       <c r="C11">
-        <v>12.9477822732505</v>
+        <v>11.0072718316443</v>
       </c>
       <c r="D11">
-        <v>6.351215113039251</v>
+        <v>9.937886071182088</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.16634497454758</v>
+        <v>29.97359264189896</v>
       </c>
       <c r="G11">
-        <v>24.65296269748717</v>
+        <v>29.68899003922769</v>
       </c>
       <c r="H11">
-        <v>8.627420202440311</v>
+        <v>14.39898917857355</v>
       </c>
       <c r="I11">
-        <v>12.90588917710734</v>
+        <v>22.39562971897274</v>
       </c>
       <c r="J11">
-        <v>5.980401661437556</v>
+        <v>10.45342287852901</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.684460367445824</v>
+        <v>11.74383568660323</v>
       </c>
       <c r="M11">
-        <v>14.04264134911038</v>
+        <v>16.05380633864379</v>
       </c>
       <c r="N11">
-        <v>12.07151539770894</v>
+        <v>18.00501692835259</v>
       </c>
       <c r="O11">
-        <v>14.69555129315156</v>
+        <v>22.06865671858129</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.45652423343885</v>
+        <v>16.35434170124182</v>
       </c>
       <c r="C12">
-        <v>13.05418026349196</v>
+        <v>11.04852260729425</v>
       </c>
       <c r="D12">
-        <v>6.372536681031169</v>
+        <v>9.937104404214287</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.26852786211701</v>
+        <v>29.9670857638036</v>
       </c>
       <c r="G12">
-        <v>24.84321052470485</v>
+        <v>29.69715069889009</v>
       </c>
       <c r="H12">
-        <v>8.632751716491951</v>
+        <v>14.39064296112507</v>
       </c>
       <c r="I12">
-        <v>12.88002605514205</v>
+        <v>22.3741653200752</v>
       </c>
       <c r="J12">
-        <v>5.965823477582088</v>
+        <v>10.44850031807887</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.718618731398963</v>
+        <v>11.74533282212803</v>
       </c>
       <c r="M12">
-        <v>14.17917643352946</v>
+        <v>16.08339096814111</v>
       </c>
       <c r="N12">
-        <v>12.04808249993595</v>
+        <v>17.99593506153023</v>
       </c>
       <c r="O12">
-        <v>14.74545074016257</v>
+        <v>22.05916352690858</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.39447126943415</v>
+        <v>16.32923454293206</v>
       </c>
       <c r="C13">
-        <v>13.03133818556585</v>
+        <v>11.03965594933916</v>
       </c>
       <c r="D13">
-        <v>6.367933301597224</v>
+        <v>9.937265055098397</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.24642035076028</v>
+        <v>29.96844264115176</v>
       </c>
       <c r="G13">
-        <v>24.80215108438728</v>
+        <v>29.6953331738787</v>
       </c>
       <c r="H13">
-        <v>8.631557393989416</v>
+        <v>14.39242561395809</v>
       </c>
       <c r="I13">
-        <v>12.88550188213286</v>
+        <v>22.37876112557945</v>
       </c>
       <c r="J13">
-        <v>5.968957244861409</v>
+        <v>10.44955636986092</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.711256369300805</v>
+        <v>11.74500212362133</v>
       </c>
       <c r="M13">
-        <v>14.14986261599595</v>
+        <v>16.07701379632181</v>
       </c>
       <c r="N13">
-        <v>12.05310267596315</v>
+        <v>17.99788006895232</v>
       </c>
       <c r="O13">
-        <v>14.73461530051807</v>
+        <v>22.06117725249712</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.19099664478745</v>
+        <v>16.24710220744642</v>
       </c>
       <c r="C14">
-        <v>12.95656836575663</v>
+        <v>11.01067338110569</v>
       </c>
       <c r="D14">
-        <v>6.352964100343781</v>
+        <v>9.937818294233683</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.1747062652515</v>
+        <v>29.97303726658953</v>
       </c>
       <c r="G14">
-        <v>24.66857549866555</v>
+        <v>29.6896343866379</v>
       </c>
       <c r="H14">
-        <v>8.627838124578071</v>
+        <v>14.3982958365492</v>
       </c>
       <c r="I14">
-        <v>12.90371912647609</v>
+        <v>22.39385169227948</v>
       </c>
       <c r="J14">
-        <v>5.979199637813104</v>
+        <v>10.45301604403433</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.68726797597626</v>
+        <v>11.74395513099575</v>
       </c>
       <c r="M14">
-        <v>14.05391528960308</v>
+        <v>16.05623773768697</v>
       </c>
       <c r="N14">
-        <v>12.06957564024189</v>
+        <v>18.0042648292592</v>
       </c>
       <c r="O14">
-        <v>14.69961663313827</v>
+        <v>22.06786182878557</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.06551135884999</v>
+        <v>16.19660148124893</v>
       </c>
       <c r="C15">
-        <v>12.91055776749942</v>
+        <v>10.99287005820921</v>
       </c>
       <c r="D15">
-        <v>6.343828579174433</v>
+        <v>9.938179715079295</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.13107417633234</v>
+        <v>29.97598189555136</v>
       </c>
       <c r="G15">
-        <v>24.58701093856343</v>
+        <v>29.6863194202196</v>
       </c>
       <c r="H15">
-        <v>8.625694178799845</v>
+        <v>14.40193501282792</v>
       </c>
       <c r="I15">
-        <v>12.91515138971493</v>
+        <v>22.40317396741845</v>
       </c>
       <c r="J15">
-        <v>5.985490767720954</v>
+        <v>10.45514723477656</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.67259158212628</v>
+        <v>11.74333803925365</v>
       </c>
       <c r="M15">
-        <v>13.9948781048723</v>
+        <v>16.04352848333607</v>
       </c>
       <c r="N15">
-        <v>12.07974309657747</v>
+        <v>18.00820770880451</v>
       </c>
       <c r="O15">
-        <v>14.67843804476174</v>
+        <v>22.07204650483803</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.33331791876634</v>
+        <v>15.90432600680784</v>
       </c>
       <c r="C16">
-        <v>12.64367616745879</v>
+        <v>10.89008716231917</v>
       </c>
       <c r="D16">
-        <v>6.291998284457202</v>
+        <v>9.940597031561795</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.88556776776897</v>
+        <v>29.99485325291141</v>
       </c>
       <c r="G16">
-        <v>24.12358696814066</v>
+        <v>29.67001869787167</v>
       </c>
       <c r="H16">
-        <v>8.615433062575626</v>
+        <v>14.42345631136159</v>
       </c>
       <c r="I16">
-        <v>12.9847587196392</v>
+        <v>22.45780466104888</v>
       </c>
       <c r="J16">
-        <v>6.02181222891689</v>
+        <v>10.46754506979249</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.588766631409951</v>
+        <v>11.74017405340783</v>
       </c>
       <c r="M16">
-        <v>13.65252424572375</v>
+        <v>15.97096599244756</v>
       </c>
       <c r="N16">
-        <v>12.13917794921304</v>
+        <v>18.03129412919547</v>
       </c>
       <c r="O16">
-        <v>14.56101510375833</v>
+        <v>22.09740868897428</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.87241763123762</v>
+        <v>15.72253834996252</v>
       </c>
       <c r="C17">
-        <v>12.47712573683529</v>
+        <v>10.8263747855167</v>
       </c>
       <c r="D17">
-        <v>6.260675686393323</v>
+        <v>9.942389492544754</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.73901269640648</v>
+        <v>30.00821184343208</v>
       </c>
       <c r="G17">
-        <v>23.84295255191472</v>
+        <v>29.6624271746265</v>
       </c>
       <c r="H17">
-        <v>8.610910107239956</v>
+        <v>14.43725377238543</v>
       </c>
       <c r="I17">
-        <v>13.03100558953894</v>
+        <v>22.49239685512745</v>
       </c>
       <c r="J17">
-        <v>6.044338346307566</v>
+        <v>10.4753160007526</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.537609870289104</v>
+        <v>11.73856641677723</v>
       </c>
       <c r="M17">
-        <v>13.4389605788611</v>
+        <v>15.92670593677658</v>
       </c>
       <c r="N17">
-        <v>12.1766664638054</v>
+        <v>18.04589584955726</v>
       </c>
       <c r="O17">
-        <v>14.49246586262328</v>
+        <v>22.11419946811568</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.60299410722681</v>
+        <v>15.6170983974007</v>
       </c>
       <c r="C18">
-        <v>12.3803083251578</v>
+        <v>10.78949484902305</v>
       </c>
       <c r="D18">
-        <v>6.242836987417512</v>
+        <v>9.94353445933975</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.65621229141309</v>
+        <v>30.01654994565294</v>
       </c>
       <c r="G18">
-        <v>23.68292538554768</v>
+        <v>29.6589467304149</v>
       </c>
       <c r="H18">
-        <v>8.608945900396574</v>
+        <v>14.44540829795978</v>
       </c>
       <c r="I18">
-        <v>13.05886646267442</v>
+        <v>22.5126894137107</v>
       </c>
       <c r="J18">
-        <v>6.05738586111459</v>
+        <v>10.47984649572256</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.508291132871237</v>
+        <v>11.7377647011269</v>
       </c>
       <c r="M18">
-        <v>13.31484892895888</v>
+        <v>15.90134806569415</v>
       </c>
       <c r="N18">
-        <v>12.19860012526575</v>
+        <v>18.05445588075055</v>
       </c>
       <c r="O18">
-        <v>14.4543056628749</v>
+        <v>22.1243094460384</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.5110273029327</v>
+        <v>15.58125027844051</v>
       </c>
       <c r="C19">
-        <v>12.34735379257611</v>
+        <v>10.77696844320139</v>
       </c>
       <c r="D19">
-        <v>6.236827848280512</v>
+        <v>9.943941726117792</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.62843442959135</v>
+        <v>30.01948549189051</v>
       </c>
       <c r="G19">
-        <v>23.62898496766497</v>
+        <v>29.65792055180151</v>
       </c>
       <c r="H19">
-        <v>8.608388988258815</v>
+        <v>14.4482068221454</v>
       </c>
       <c r="I19">
-        <v>13.06851234264426</v>
+        <v>22.51962813423516</v>
       </c>
       <c r="J19">
-        <v>6.061819299708633</v>
+        <v>10.48139090861549</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.498383075571917</v>
+        <v>11.73751441276432</v>
       </c>
       <c r="M19">
-        <v>13.27261040121331</v>
+        <v>15.89277993120371</v>
       </c>
       <c r="N19">
-        <v>12.20608967935517</v>
+        <v>18.05738191804994</v>
       </c>
       <c r="O19">
-        <v>14.44160161957496</v>
+        <v>22.12781016953266</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.92192857006599</v>
+        <v>15.74198185303579</v>
       </c>
       <c r="C20">
-        <v>12.49496148874663</v>
+        <v>10.83318149768466</v>
       </c>
       <c r="D20">
-        <v>6.263991758847638</v>
+        <v>9.942186889842858</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.75445916715292</v>
+        <v>30.00672204639957</v>
       </c>
       <c r="G20">
-        <v>23.87268401611199</v>
+        <v>29.66314362507135</v>
       </c>
       <c r="H20">
-        <v>8.611325314376469</v>
+        <v>14.4357623854727</v>
       </c>
       <c r="I20">
-        <v>13.02595110273642</v>
+        <v>22.4886734651239</v>
       </c>
       <c r="J20">
-        <v>6.041931006401438</v>
+        <v>10.4744824758983</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.543044860553463</v>
+        <v>11.7387248369793</v>
       </c>
       <c r="M20">
-        <v>13.46182741193812</v>
+        <v>15.93140734289974</v>
       </c>
       <c r="N20">
-        <v>12.17263718660693</v>
+        <v>18.0443247604735</v>
       </c>
       <c r="O20">
-        <v>14.49963154676792</v>
+        <v>22.11236523450648</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.25093936482537</v>
+        <v>16.27126670682776</v>
       </c>
       <c r="C21">
-        <v>12.97857431929108</v>
+        <v>11.01919686301296</v>
       </c>
       <c r="D21">
-        <v>6.357353944497128</v>
+        <v>9.937651097379817</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.1957090127949</v>
+        <v>29.9716605617516</v>
       </c>
       <c r="G21">
-        <v>24.70775709632595</v>
+        <v>29.6912716493385</v>
       </c>
       <c r="H21">
-        <v>8.628902517119624</v>
+        <v>14.39656254543377</v>
       </c>
       <c r="I21">
-        <v>12.89831100201566</v>
+        <v>22.38940279039034</v>
       </c>
       <c r="J21">
-        <v>5.976187587190905</v>
+        <v>10.4519973453605</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.694310404356925</v>
+        <v>11.74425761296085</v>
       </c>
       <c r="M21">
-        <v>14.0821530392062</v>
+        <v>16.06233672551969</v>
       </c>
       <c r="N21">
-        <v>12.0647209866495</v>
+        <v>18.00238279653262</v>
       </c>
       <c r="O21">
-        <v>14.70984252674194</v>
+        <v>22.06587961160181</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.08137942342374</v>
+        <v>16.60866506536073</v>
       </c>
       <c r="C22">
-        <v>13.28520187709474</v>
+        <v>11.1385216055567</v>
       </c>
       <c r="D22">
-        <v>6.41988164440879</v>
+        <v>9.935696463024666</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.49730051875008</v>
+        <v>29.95457694297149</v>
       </c>
       <c r="G22">
-        <v>25.26501875261433</v>
+        <v>29.71752182880822</v>
       </c>
       <c r="H22">
-        <v>8.64635996818877</v>
+        <v>14.37288990970786</v>
       </c>
       <c r="I22">
-        <v>12.82702573629951</v>
+        <v>22.32805322350939</v>
       </c>
       <c r="J22">
-        <v>5.93400160776094</v>
+        <v>10.43784125746388</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.793959569799116</v>
+        <v>11.74895890510306</v>
       </c>
       <c r="M22">
-        <v>14.47570186221451</v>
+        <v>16.1486687796367</v>
       </c>
       <c r="N22">
-        <v>11.99763378756291</v>
+        <v>17.97640538633952</v>
       </c>
       <c r="O22">
-        <v>14.85878926885285</v>
+        <v>22.0395339005382</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.64162982624739</v>
+        <v>16.42939963920196</v>
       </c>
       <c r="C23">
-        <v>13.12242771709836</v>
+        <v>11.0750489313768</v>
       </c>
       <c r="D23">
-        <v>6.386374590316739</v>
+        <v>9.936647559882088</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.33513244011911</v>
+        <v>29.96316124153017</v>
       </c>
       <c r="G23">
-        <v>24.9665858527472</v>
+        <v>29.70279319409575</v>
       </c>
       <c r="H23">
-        <v>8.636482121817171</v>
+        <v>14.38534630914337</v>
       </c>
       <c r="I23">
-        <v>12.86391640247619</v>
+        <v>22.36047354375973</v>
       </c>
       <c r="J23">
-        <v>5.956447072852973</v>
+        <v>10.44534741777288</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.74070984579405</v>
+        <v>11.74635090994485</v>
       </c>
       <c r="M23">
-        <v>14.26676557924012</v>
+        <v>16.10252796118606</v>
       </c>
       <c r="N23">
-        <v>12.03311757477654</v>
+        <v>17.99013899675169</v>
       </c>
       <c r="O23">
-        <v>14.77822346441478</v>
+        <v>22.05322556403517</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.89955852646885</v>
+        <v>15.73319432738353</v>
       </c>
       <c r="C24">
-        <v>12.48690125963711</v>
+        <v>10.83010496263417</v>
       </c>
       <c r="D24">
-        <v>6.262492035093538</v>
+        <v>9.942278129956017</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.74747128149298</v>
+        <v>30.00739353384395</v>
       </c>
       <c r="G24">
-        <v>23.85923832086502</v>
+        <v>29.66281696395949</v>
       </c>
       <c r="H24">
-        <v>8.611135621194475</v>
+        <v>14.43643594941744</v>
       </c>
       <c r="I24">
-        <v>13.02823228119876</v>
+        <v>22.49035554808801</v>
       </c>
       <c r="J24">
-        <v>6.043019062468251</v>
+        <v>10.47485911658039</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.540587413323663</v>
+        <v>11.73865283341876</v>
       </c>
       <c r="M24">
-        <v>13.45149345658658</v>
+        <v>15.92928156226227</v>
       </c>
       <c r="N24">
-        <v>12.17445763751717</v>
+        <v>18.04503453488014</v>
       </c>
       <c r="O24">
-        <v>14.49638805170782</v>
+        <v>22.11319306890888</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.85484832484342</v>
+        <v>14.94906624614994</v>
       </c>
       <c r="C25">
-        <v>11.76259662591423</v>
+        <v>10.55704167104207</v>
       </c>
       <c r="D25">
-        <v>6.135677121067069</v>
+        <v>9.952712355824813</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.17070075653474</v>
+        <v>30.08012574216012</v>
       </c>
       <c r="G25">
-        <v>22.71832645591145</v>
+        <v>29.65356779545498</v>
       </c>
       <c r="H25">
-        <v>8.607983560797301</v>
+        <v>14.49990133443883</v>
       </c>
       <c r="I25">
-        <v>13.25320992342814</v>
+        <v>22.64559470380076</v>
       </c>
       <c r="J25">
-        <v>6.139899819836443</v>
+        <v>10.5090208230985</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.328841665813951</v>
+        <v>11.73505488003087</v>
       </c>
       <c r="M25">
-        <v>12.52377703448302</v>
+        <v>15.74627519500859</v>
       </c>
       <c r="N25">
-        <v>12.34104508577286</v>
+        <v>18.11042570951265</v>
       </c>
       <c r="O25">
-        <v>14.2406205587344</v>
+        <v>22.19516654224219</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_178/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_178/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.34740256217261</v>
+        <v>18.20467536966422</v>
       </c>
       <c r="C2">
-        <v>10.34926009556185</v>
+        <v>11.19822312665602</v>
       </c>
       <c r="D2">
-        <v>9.964170495555722</v>
+        <v>6.04847974536842</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.15515580384336</v>
+        <v>19.79510680584956</v>
       </c>
       <c r="G2">
-        <v>29.67589848840167</v>
+        <v>21.92883106023114</v>
       </c>
       <c r="H2">
-        <v>14.55382193461381</v>
+        <v>8.624856289557385</v>
       </c>
       <c r="I2">
-        <v>22.77292271472182</v>
+        <v>13.45544838694617</v>
       </c>
       <c r="J2">
-        <v>10.53619613863462</v>
+        <v>6.214408766066839</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.73649658738849</v>
+        <v>7.177271924331219</v>
       </c>
       <c r="M2">
-        <v>15.61546650883949</v>
+        <v>11.80274333139598</v>
       </c>
       <c r="N2">
-        <v>18.16391667204133</v>
+        <v>12.47523486550032</v>
       </c>
       <c r="O2">
-        <v>22.27034709768229</v>
+        <v>14.09186952807263</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.92697751076037</v>
+        <v>16.99500047108656</v>
       </c>
       <c r="C3">
-        <v>10.20472931831081</v>
+        <v>10.79784451898842</v>
       </c>
       <c r="D3">
-        <v>9.974302547796395</v>
+        <v>5.99338124245859</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.21936931795404</v>
+        <v>19.57088545423705</v>
       </c>
       <c r="G3">
-        <v>29.70917269403619</v>
+        <v>21.42749723799763</v>
       </c>
       <c r="H3">
-        <v>14.594851974642</v>
+        <v>8.647454347344214</v>
       </c>
       <c r="I3">
-        <v>22.86734269547867</v>
+        <v>13.61327799509113</v>
       </c>
       <c r="J3">
-        <v>10.55588438663188</v>
+        <v>6.266964591833251</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.74004598782049</v>
+        <v>7.077667363517405</v>
       </c>
       <c r="M3">
-        <v>15.52957484803906</v>
+        <v>11.29281980337812</v>
       </c>
       <c r="N3">
-        <v>18.20351729125601</v>
+        <v>12.57309873653834</v>
       </c>
       <c r="O3">
-        <v>22.33051725549161</v>
+        <v>14.01458643213553</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.66353389365985</v>
+        <v>16.20684833676446</v>
       </c>
       <c r="C4">
-        <v>10.11432434482128</v>
+        <v>10.54378952214124</v>
       </c>
       <c r="D4">
-        <v>9.981694766624308</v>
+        <v>5.96156313617738</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.26537507066767</v>
+        <v>19.44797738365179</v>
       </c>
       <c r="G4">
-        <v>29.73852719587957</v>
+        <v>21.13694597908426</v>
       </c>
       <c r="H4">
-        <v>14.62225852458104</v>
+        <v>8.666568536259813</v>
       </c>
       <c r="I4">
-        <v>22.92932741198176</v>
+        <v>13.71980319639127</v>
       </c>
       <c r="J4">
-        <v>10.56860333210849</v>
+        <v>6.300275223777476</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.74350065000834</v>
+        <v>7.018182703422903</v>
       </c>
       <c r="M4">
-        <v>15.47829641035831</v>
+        <v>10.97024290456764</v>
       </c>
       <c r="N4">
-        <v>18.22948961852674</v>
+        <v>12.63652180905127</v>
       </c>
       <c r="O4">
-        <v>22.3719993008228</v>
+        <v>13.97829912301982</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.55500132588529</v>
+        <v>15.87420190426518</v>
       </c>
       <c r="C5">
-        <v>10.0770923071551</v>
+        <v>10.4382975853768</v>
       </c>
       <c r="D5">
-        <v>9.985002198086482</v>
+        <v>5.949108741109348</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.28577473776429</v>
+        <v>19.40156568549083</v>
       </c>
       <c r="G5">
-        <v>29.75272901947364</v>
+        <v>21.02296949953939</v>
       </c>
       <c r="H5">
-        <v>14.63398367033845</v>
+        <v>8.67563570685121</v>
       </c>
       <c r="I5">
-        <v>22.95559520973011</v>
+        <v>13.76554326711429</v>
       </c>
       <c r="J5">
-        <v>10.57394533808145</v>
+        <v>6.314114817575386</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.74523013571867</v>
+        <v>6.994383239333944</v>
       </c>
       <c r="M5">
-        <v>15.45778182351755</v>
+        <v>10.83658331165374</v>
       </c>
       <c r="N5">
-        <v>18.24049107711344</v>
+        <v>12.66319453599141</v>
       </c>
       <c r="O5">
-        <v>22.39004291853018</v>
+        <v>13.96624869417379</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.53691324663057</v>
+        <v>15.81827212733491</v>
       </c>
       <c r="C6">
-        <v>10.07088711809225</v>
+        <v>10.42066550201938</v>
       </c>
       <c r="D6">
-        <v>9.985569230069375</v>
+        <v>5.947071751809922</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.28926178812104</v>
+        <v>19.39407963305622</v>
       </c>
       <c r="G6">
-        <v>29.7552223363382</v>
+        <v>21.00431313540465</v>
       </c>
       <c r="H6">
-        <v>14.63596424946561</v>
+        <v>8.677217346286103</v>
       </c>
       <c r="I6">
-        <v>22.96001787208674</v>
+        <v>13.7732766312424</v>
       </c>
       <c r="J6">
-        <v>10.57484198627164</v>
+        <v>6.316428990137514</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.74553677220793</v>
+        <v>6.990458571264843</v>
       </c>
       <c r="M6">
-        <v>15.45439887469393</v>
+        <v>10.8142616011615</v>
       </c>
       <c r="N6">
-        <v>18.24234310092644</v>
+        <v>12.66767318243949</v>
       </c>
       <c r="O6">
-        <v>22.39310781192266</v>
+        <v>13.96441086865332</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.66207473781606</v>
+        <v>16.20240865034803</v>
       </c>
       <c r="C7">
-        <v>10.11382376897953</v>
+        <v>10.54237461960228</v>
       </c>
       <c r="D7">
-        <v>9.981738176464791</v>
+        <v>5.961393093083457</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.26564350225697</v>
+        <v>19.44733664109959</v>
       </c>
       <c r="G7">
-        <v>29.73870966521938</v>
+        <v>21.13539083779269</v>
       </c>
       <c r="H7">
-        <v>14.62241439967475</v>
+        <v>8.666685696534767</v>
       </c>
       <c r="I7">
-        <v>22.92967758511989</v>
+        <v>13.72041074076276</v>
       </c>
       <c r="J7">
-        <v>10.56867473216725</v>
+        <v>6.300460790944983</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.74352267070457</v>
+        <v>7.01785992357187</v>
       </c>
       <c r="M7">
-        <v>15.47801817839507</v>
+        <v>10.96844900821484</v>
       </c>
       <c r="N7">
-        <v>18.22963629648703</v>
+        <v>12.63687819100373</v>
       </c>
       <c r="O7">
-        <v>22.37223803240162</v>
+        <v>13.97812562202631</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.20363026225602</v>
+        <v>17.79697315291898</v>
       </c>
       <c r="C8">
-        <v>10.29978678604099</v>
+        <v>11.06193793485405</v>
       </c>
       <c r="D8">
-        <v>9.967421311566735</v>
+        <v>6.029067752829909</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.17593003268381</v>
+        <v>19.71471126458419</v>
       </c>
       <c r="G8">
-        <v>29.68551699536378</v>
+        <v>21.75244193906165</v>
       </c>
       <c r="H8">
-        <v>14.56750961803391</v>
+        <v>8.631536976737541</v>
       </c>
       <c r="I8">
-        <v>22.80464638487969</v>
+        <v>13.50781734598231</v>
       </c>
       <c r="J8">
-        <v>10.542854098994</v>
+        <v>6.232316032549608</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.73745634153055</v>
+        <v>7.142593475845772</v>
       </c>
       <c r="M8">
-        <v>15.58555719796905</v>
+        <v>11.62898877927192</v>
       </c>
       <c r="N8">
-        <v>18.17722743064953</v>
+        <v>12.50827932802672</v>
       </c>
       <c r="O8">
-        <v>22.290151123287</v>
+        <v>14.06286431024435</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.21728208675408</v>
+        <v>20.56593644275653</v>
       </c>
       <c r="C9">
-        <v>10.65012994927535</v>
+        <v>12.01157883075988</v>
       </c>
       <c r="D9">
-        <v>9.948612711769995</v>
+        <v>6.177456087871607</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.05228596706955</v>
+        <v>20.35734561553161</v>
       </c>
       <c r="G9">
-        <v>29.65215479256328</v>
+        <v>23.09509467883449</v>
       </c>
       <c r="H9">
-        <v>14.47740605472432</v>
+        <v>8.605955974739976</v>
       </c>
       <c r="I9">
-        <v>22.59127899534925</v>
+        <v>13.17145518184016</v>
       </c>
       <c r="J9">
-        <v>10.49720056964476</v>
+        <v>6.106782849566745</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.73563422938749</v>
+        <v>7.399549052501286</v>
       </c>
       <c r="M9">
-        <v>15.80735020876</v>
+        <v>12.84245092748514</v>
       </c>
       <c r="N9">
-        <v>18.08757056908049</v>
+        <v>12.28309951339258</v>
       </c>
       <c r="O9">
-        <v>22.16524758941806</v>
+        <v>14.32048988730749</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.92494749216199</v>
+        <v>22.38532494984812</v>
       </c>
       <c r="C10">
-        <v>10.89732488299516</v>
+        <v>12.66254098205112</v>
       </c>
       <c r="D10">
-        <v>9.940407927829662</v>
+        <v>6.295596196802035</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.99341765675967</v>
+        <v>20.90249292649414</v>
       </c>
       <c r="G10">
-        <v>29.67100493935721</v>
+        <v>24.15579417960219</v>
       </c>
       <c r="H10">
-        <v>14.42191154570722</v>
+        <v>8.616036523097829</v>
       </c>
       <c r="I10">
-        <v>22.45391112546772</v>
+        <v>12.97965549341893</v>
       </c>
       <c r="J10">
-        <v>10.46666659005507</v>
+        <v>6.01925408484157</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.74037412479661</v>
+        <v>7.594617721750431</v>
       </c>
       <c r="M10">
-        <v>15.97602941834582</v>
+        <v>13.67671859704263</v>
       </c>
       <c r="N10">
-        <v>18.02964984191868</v>
+        <v>12.13495099973216</v>
       </c>
       <c r="O10">
-        <v>22.09555406756461</v>
+        <v>14.56900980457279</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.23745627098432</v>
+        <v>23.16705053974689</v>
       </c>
       <c r="C11">
-        <v>11.0072718316443</v>
+        <v>12.94778227325047</v>
       </c>
       <c r="D11">
-        <v>9.937886071182088</v>
+        <v>6.351215113039204</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.97359264189896</v>
+        <v>21.16634497454745</v>
       </c>
       <c r="G11">
-        <v>29.68899003922769</v>
+        <v>24.65296269748712</v>
       </c>
       <c r="H11">
-        <v>14.39898917857355</v>
+        <v>8.627420202440156</v>
       </c>
       <c r="I11">
-        <v>22.39562971897274</v>
+        <v>12.90588917710726</v>
       </c>
       <c r="J11">
-        <v>10.45342287852901</v>
+        <v>5.980401661437656</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.74383568660323</v>
+        <v>7.684460367445835</v>
       </c>
       <c r="M11">
-        <v>16.05380633864379</v>
+        <v>14.04264134911036</v>
       </c>
       <c r="N11">
-        <v>18.00501692835259</v>
+        <v>12.07151539770895</v>
       </c>
       <c r="O11">
-        <v>22.06865671858129</v>
+        <v>14.69555129315146</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.35434170124182</v>
+        <v>23.45652423343888</v>
       </c>
       <c r="C12">
-        <v>11.04852260729425</v>
+        <v>13.05418026349203</v>
       </c>
       <c r="D12">
-        <v>9.937104404214287</v>
+        <v>6.372536681031288</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.9670857638036</v>
+        <v>21.26852786211699</v>
       </c>
       <c r="G12">
-        <v>29.69715069889009</v>
+        <v>24.84321052470477</v>
       </c>
       <c r="H12">
-        <v>14.39064296112507</v>
+        <v>8.632751716491951</v>
       </c>
       <c r="I12">
-        <v>22.3741653200752</v>
+        <v>12.880026055142</v>
       </c>
       <c r="J12">
-        <v>10.44850031807887</v>
+        <v>5.965823477581988</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.74533282212803</v>
+        <v>7.718618731398923</v>
       </c>
       <c r="M12">
-        <v>16.08339096814111</v>
+        <v>14.17917643352944</v>
       </c>
       <c r="N12">
-        <v>17.99593506153023</v>
+        <v>12.04808249993595</v>
       </c>
       <c r="O12">
-        <v>22.05916352690858</v>
+        <v>14.74545074016252</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.32923454293206</v>
+        <v>23.39447126943417</v>
       </c>
       <c r="C13">
-        <v>11.03965594933916</v>
+        <v>13.03133818556597</v>
       </c>
       <c r="D13">
-        <v>9.937265055098397</v>
+        <v>6.367933301597128</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.96844264115176</v>
+        <v>21.2464203507601</v>
       </c>
       <c r="G13">
-        <v>29.6953331738787</v>
+        <v>24.80215108438705</v>
       </c>
       <c r="H13">
-        <v>14.39242561395809</v>
+        <v>8.631557393989372</v>
       </c>
       <c r="I13">
-        <v>22.37876112557945</v>
+        <v>12.8855018821328</v>
       </c>
       <c r="J13">
-        <v>10.44955636986092</v>
+        <v>5.968957244861442</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.74500212362133</v>
+        <v>7.711256369300711</v>
       </c>
       <c r="M13">
-        <v>16.07701379632181</v>
+        <v>14.14986261599591</v>
       </c>
       <c r="N13">
-        <v>17.99788006895232</v>
+        <v>12.05310267596306</v>
       </c>
       <c r="O13">
-        <v>22.06117725249712</v>
+        <v>14.73461530051797</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.24710220744642</v>
+        <v>23.19099664478746</v>
       </c>
       <c r="C14">
-        <v>11.01067338110569</v>
+        <v>12.95656836575652</v>
       </c>
       <c r="D14">
-        <v>9.937818294233683</v>
+        <v>6.352964100343798</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.97303726658953</v>
+        <v>21.17470626525149</v>
       </c>
       <c r="G14">
-        <v>29.6896343866379</v>
+        <v>24.66857549866557</v>
       </c>
       <c r="H14">
-        <v>14.3982958365492</v>
+        <v>8.627838124578028</v>
       </c>
       <c r="I14">
-        <v>22.39385169227948</v>
+        <v>12.90371912647606</v>
       </c>
       <c r="J14">
-        <v>10.45301604403433</v>
+        <v>5.979199637813071</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.74395513099575</v>
+        <v>7.68726797597625</v>
       </c>
       <c r="M14">
-        <v>16.05623773768697</v>
+        <v>14.05391528960309</v>
       </c>
       <c r="N14">
-        <v>18.0042648292592</v>
+        <v>12.06957564024185</v>
       </c>
       <c r="O14">
-        <v>22.06786182878557</v>
+        <v>14.69961663313824</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.19660148124893</v>
+        <v>23.06551135884998</v>
       </c>
       <c r="C15">
-        <v>10.99287005820921</v>
+        <v>12.91055776749932</v>
       </c>
       <c r="D15">
-        <v>9.938179715079295</v>
+        <v>6.343828579174533</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.97598189555136</v>
+        <v>21.13107417633237</v>
       </c>
       <c r="G15">
-        <v>29.6863194202196</v>
+        <v>24.58701093856342</v>
       </c>
       <c r="H15">
-        <v>14.40193501282792</v>
+        <v>8.625694178799838</v>
       </c>
       <c r="I15">
-        <v>22.40317396741845</v>
+        <v>12.91515138971491</v>
       </c>
       <c r="J15">
-        <v>10.45514723477656</v>
+        <v>5.985490767720987</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.74333803925365</v>
+        <v>7.672591582126363</v>
       </c>
       <c r="M15">
-        <v>16.04352848333607</v>
+        <v>13.99487810487232</v>
       </c>
       <c r="N15">
-        <v>18.00820770880451</v>
+        <v>12.07974309657744</v>
       </c>
       <c r="O15">
-        <v>22.07204650483803</v>
+        <v>14.67843804476172</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.90432600680784</v>
+        <v>22.33331791876639</v>
       </c>
       <c r="C16">
-        <v>10.89008716231917</v>
+        <v>12.64367616745877</v>
       </c>
       <c r="D16">
-        <v>9.940597031561795</v>
+        <v>6.291998284457295</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>29.99485325291141</v>
+        <v>20.88556776776898</v>
       </c>
       <c r="G16">
-        <v>29.67001869787167</v>
+        <v>24.12358696814057</v>
       </c>
       <c r="H16">
-        <v>14.42345631136159</v>
+        <v>8.615433062575637</v>
       </c>
       <c r="I16">
-        <v>22.45780466104888</v>
+        <v>12.98475871963919</v>
       </c>
       <c r="J16">
-        <v>10.46754506979249</v>
+        <v>6.02181222891689</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.74017405340783</v>
+        <v>7.588766631409957</v>
       </c>
       <c r="M16">
-        <v>15.97096599244756</v>
+        <v>13.65252424572372</v>
       </c>
       <c r="N16">
-        <v>18.03129412919547</v>
+        <v>12.13917794921306</v>
       </c>
       <c r="O16">
-        <v>22.09740868897428</v>
+        <v>14.56101510375831</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.72253834996252</v>
+        <v>21.87241763123764</v>
       </c>
       <c r="C17">
-        <v>10.8263747855167</v>
+        <v>12.47712573683551</v>
       </c>
       <c r="D17">
-        <v>9.942389492544754</v>
+        <v>6.260675686393312</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.00821184343208</v>
+        <v>20.73901269640652</v>
       </c>
       <c r="G17">
-        <v>29.6624271746265</v>
+        <v>23.84295255191482</v>
       </c>
       <c r="H17">
-        <v>14.43725377238543</v>
+        <v>8.610910107239961</v>
       </c>
       <c r="I17">
-        <v>22.49239685512745</v>
+        <v>13.03100558953906</v>
       </c>
       <c r="J17">
-        <v>10.4753160007526</v>
+        <v>6.044338346307566</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.73856641677723</v>
+        <v>7.537609870289069</v>
       </c>
       <c r="M17">
-        <v>15.92670593677658</v>
+        <v>13.43896057886108</v>
       </c>
       <c r="N17">
-        <v>18.04589584955726</v>
+        <v>12.17666646380549</v>
       </c>
       <c r="O17">
-        <v>22.11419946811568</v>
+        <v>14.49246586262334</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.6170983974007</v>
+        <v>21.60299410722685</v>
       </c>
       <c r="C18">
-        <v>10.78949484902305</v>
+        <v>12.38030832515769</v>
       </c>
       <c r="D18">
-        <v>9.94353445933975</v>
+        <v>6.242836987417349</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.01654994565294</v>
+        <v>20.65621229141303</v>
       </c>
       <c r="G18">
-        <v>29.6589467304149</v>
+        <v>23.68292538554766</v>
       </c>
       <c r="H18">
-        <v>14.44540829795978</v>
+        <v>8.60894590039659</v>
       </c>
       <c r="I18">
-        <v>22.5126894137107</v>
+        <v>13.05886646267441</v>
       </c>
       <c r="J18">
-        <v>10.47984649572256</v>
+        <v>6.057385861114658</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.7377647011269</v>
+        <v>7.508291132871199</v>
       </c>
       <c r="M18">
-        <v>15.90134806569415</v>
+        <v>13.31484892895887</v>
       </c>
       <c r="N18">
-        <v>18.05445588075055</v>
+        <v>12.19860012526575</v>
       </c>
       <c r="O18">
-        <v>22.1243094460384</v>
+        <v>14.45430566287492</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.58125027844051</v>
+        <v>21.51102730293279</v>
       </c>
       <c r="C19">
-        <v>10.77696844320139</v>
+        <v>12.34735379257625</v>
       </c>
       <c r="D19">
-        <v>9.943941726117792</v>
+        <v>6.236827848280504</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.01948549189051</v>
+        <v>20.62843442959115</v>
       </c>
       <c r="G19">
-        <v>29.65792055180151</v>
+        <v>23.6289849676648</v>
       </c>
       <c r="H19">
-        <v>14.4482068221454</v>
+        <v>8.608388988258664</v>
       </c>
       <c r="I19">
-        <v>22.51962813423516</v>
+        <v>13.06851234264411</v>
       </c>
       <c r="J19">
-        <v>10.48139090861549</v>
+        <v>6.0618192997087</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.73751441276432</v>
+        <v>7.498383075571938</v>
       </c>
       <c r="M19">
-        <v>15.89277993120371</v>
+        <v>13.27261040121329</v>
       </c>
       <c r="N19">
-        <v>18.05738191804994</v>
+        <v>12.20608967935513</v>
       </c>
       <c r="O19">
-        <v>22.12781016953266</v>
+        <v>14.4416016195748</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.74198185303579</v>
+        <v>21.92192857006603</v>
       </c>
       <c r="C20">
-        <v>10.83318149768466</v>
+        <v>12.49496148874661</v>
       </c>
       <c r="D20">
-        <v>9.942186889842858</v>
+        <v>6.26399175884761</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.00672204639957</v>
+        <v>20.75445916715276</v>
       </c>
       <c r="G20">
-        <v>29.66314362507135</v>
+        <v>23.87268401611177</v>
       </c>
       <c r="H20">
-        <v>14.4357623854727</v>
+        <v>8.611325314376378</v>
       </c>
       <c r="I20">
-        <v>22.4886734651239</v>
+        <v>13.02595110273625</v>
       </c>
       <c r="J20">
-        <v>10.4744824758983</v>
+        <v>6.041931006401405</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.7387248369793</v>
+        <v>7.543044860553406</v>
       </c>
       <c r="M20">
-        <v>15.93140734289974</v>
+        <v>13.46182741193806</v>
       </c>
       <c r="N20">
-        <v>18.0443247604735</v>
+        <v>12.17263718660683</v>
       </c>
       <c r="O20">
-        <v>22.11236523450648</v>
+        <v>14.49963154676778</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.27126670682776</v>
+        <v>23.2509393648254</v>
       </c>
       <c r="C21">
-        <v>11.01919686301296</v>
+        <v>12.97857431929088</v>
       </c>
       <c r="D21">
-        <v>9.937651097379817</v>
+        <v>6.357353944496948</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.9716605617516</v>
+        <v>21.19570901279465</v>
       </c>
       <c r="G21">
-        <v>29.6912716493385</v>
+        <v>24.70775709632575</v>
       </c>
       <c r="H21">
-        <v>14.39656254543377</v>
+        <v>8.628902517119547</v>
       </c>
       <c r="I21">
-        <v>22.38940279039034</v>
+        <v>12.89831100201551</v>
       </c>
       <c r="J21">
-        <v>10.4519973453605</v>
+        <v>5.976187587190938</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.74425761296085</v>
+        <v>7.694310404356881</v>
       </c>
       <c r="M21">
-        <v>16.06233672551969</v>
+        <v>14.08215303920618</v>
       </c>
       <c r="N21">
-        <v>18.00238279653262</v>
+        <v>12.06472098664945</v>
       </c>
       <c r="O21">
-        <v>22.06587961160181</v>
+        <v>14.70984252674179</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.60866506536073</v>
+        <v>24.08137942342376</v>
       </c>
       <c r="C22">
-        <v>11.1385216055567</v>
+        <v>13.28520187709476</v>
       </c>
       <c r="D22">
-        <v>9.935696463024666</v>
+        <v>6.419881644408941</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.95457694297149</v>
+        <v>21.49730051875012</v>
       </c>
       <c r="G22">
-        <v>29.71752182880822</v>
+        <v>25.26501875261432</v>
       </c>
       <c r="H22">
-        <v>14.37288990970786</v>
+        <v>8.646359968188783</v>
       </c>
       <c r="I22">
-        <v>22.32805322350939</v>
+        <v>12.82702573629953</v>
       </c>
       <c r="J22">
-        <v>10.43784125746388</v>
+        <v>5.934001607760838</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.74895890510306</v>
+        <v>7.793959569799052</v>
       </c>
       <c r="M22">
-        <v>16.1486687796367</v>
+        <v>14.47570186221449</v>
       </c>
       <c r="N22">
-        <v>17.97640538633952</v>
+        <v>11.99763378756291</v>
       </c>
       <c r="O22">
-        <v>22.0395339005382</v>
+        <v>14.85878926885285</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.42939963920196</v>
+        <v>23.64162982624738</v>
       </c>
       <c r="C23">
-        <v>11.0750489313768</v>
+        <v>13.12242771709861</v>
       </c>
       <c r="D23">
-        <v>9.936647559882088</v>
+        <v>6.38637459031684</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.96316124153017</v>
+        <v>21.33513244011905</v>
       </c>
       <c r="G23">
-        <v>29.70279319409575</v>
+        <v>24.96658585274709</v>
       </c>
       <c r="H23">
-        <v>14.38534630914337</v>
+        <v>8.636482121817171</v>
       </c>
       <c r="I23">
-        <v>22.36047354375973</v>
+        <v>12.86391640247616</v>
       </c>
       <c r="J23">
-        <v>10.44534741777288</v>
+        <v>5.956447072853006</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.74635090994485</v>
+        <v>7.740709845794044</v>
       </c>
       <c r="M23">
-        <v>16.10252796118606</v>
+        <v>14.26676557924011</v>
       </c>
       <c r="N23">
-        <v>17.99013899675169</v>
+        <v>12.03311757477651</v>
       </c>
       <c r="O23">
-        <v>22.05322556403517</v>
+        <v>14.7782234644147</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.73319432738353</v>
+        <v>21.89955852646893</v>
       </c>
       <c r="C24">
-        <v>10.83010496263417</v>
+        <v>12.48690125963731</v>
       </c>
       <c r="D24">
-        <v>9.942278129956017</v>
+        <v>6.262492035093718</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.00739353384395</v>
+        <v>20.74747128149279</v>
       </c>
       <c r="G24">
-        <v>29.66281696395949</v>
+        <v>23.85923832086482</v>
       </c>
       <c r="H24">
-        <v>14.43643594941744</v>
+        <v>8.61113562119437</v>
       </c>
       <c r="I24">
-        <v>22.49035554808801</v>
+        <v>13.02823228119855</v>
       </c>
       <c r="J24">
-        <v>10.47485911658039</v>
+        <v>6.043019062468286</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.73865283341876</v>
+        <v>7.540587413323697</v>
       </c>
       <c r="M24">
-        <v>15.92928156226227</v>
+        <v>13.45149345658655</v>
       </c>
       <c r="N24">
-        <v>18.04503453488014</v>
+        <v>12.17445763751715</v>
       </c>
       <c r="O24">
-        <v>22.11319306890888</v>
+        <v>14.49638805170763</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.94906624614994</v>
+        <v>19.85484832484346</v>
       </c>
       <c r="C25">
-        <v>10.55704167104207</v>
+        <v>11.76259662591411</v>
       </c>
       <c r="D25">
-        <v>9.952712355824813</v>
+        <v>6.135677121066883</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.08012574216012</v>
+        <v>20.17070075653471</v>
       </c>
       <c r="G25">
-        <v>29.65356779545498</v>
+        <v>22.71832645591158</v>
       </c>
       <c r="H25">
-        <v>14.49990133443883</v>
+        <v>8.607983560797301</v>
       </c>
       <c r="I25">
-        <v>22.64559470380076</v>
+        <v>13.25320992342815</v>
       </c>
       <c r="J25">
-        <v>10.5090208230985</v>
+        <v>6.139899819836411</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.73505488003087</v>
+        <v>7.328841665813878</v>
       </c>
       <c r="M25">
-        <v>15.74627519500859</v>
+        <v>12.52377703448298</v>
       </c>
       <c r="N25">
-        <v>18.11042570951265</v>
+        <v>12.34104508577289</v>
       </c>
       <c r="O25">
-        <v>22.19516654224219</v>
+        <v>14.24062055873445</v>
       </c>
     </row>
   </sheetData>
